--- a/Tables/Supp Table 13 - Wallace Ionome HPO Overlap.xlsx
+++ b/Tables/Supp Table 13 - Wallace Ionome HPO Overlap.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
   <si>
     <t>100 Kernel weight</t>
   </si>
@@ -30,33 +30,15 @@
     <t>Al27</t>
   </si>
   <si>
-    <t>GRMZM2G348238,GRMZM2G074743,GRMZM2G162451</t>
-  </si>
-  <si>
     <t>As75</t>
   </si>
   <si>
-    <t>AC207342.3_FG008,GRMZM5G829396</t>
-  </si>
-  <si>
-    <t>Ca43</t>
-  </si>
-  <si>
-    <t>GRMZM2G163195</t>
-  </si>
-  <si>
     <t>Cd111</t>
   </si>
   <si>
-    <t>GRMZM2G336337,GRMZM5G893392,GRMZM5G832381,GRMZM2G070468,GRMZM2G045596,GRMZM2G157927,GRMZM2G348238,GRMZM2G046459,GRMZM5G870342,GRMZM2G084046,GRMZM2G364643,GRMZM5G852801,GRMZM2G115480,GRMZM2G098239,GRMZM2G041328,GRMZM2G085550,GRMZM2G142179,GRMZM2G158194,GRMZM5G881965,GRMZM2G427729</t>
-  </si>
-  <si>
     <t>Cu65</t>
   </si>
   <si>
-    <t>GRMZM2G045581,GRMZM2G104639,GRMZM2G009406,GRMZM2G045596</t>
-  </si>
-  <si>
     <t>Fe57</t>
   </si>
   <si>
@@ -78,15 +60,9 @@
     <t>Rb85</t>
   </si>
   <si>
-    <t>GRMZM2G126774</t>
-  </si>
-  <si>
     <t>Se82</t>
   </si>
   <si>
-    <t>GRMZM2G008367,GRMZM2G070468,GRMZM5G842019,GRMZM2G589470,GRMZM2G149446,GRMZM2G085550,GRMZM2G140032</t>
-  </si>
-  <si>
     <t>Sr88</t>
   </si>
   <si>
@@ -96,18 +72,9 @@
     <t>Zn66</t>
   </si>
   <si>
-    <t>GRMZM2G114036</t>
-  </si>
-  <si>
     <t>Anthesis-silking interval</t>
   </si>
   <si>
-    <t>GRMZM2G034572</t>
-  </si>
-  <si>
-    <t>GRMZM2G070468,GRMZM2G166524,GRMZM2G081214,GRMZM2G348238,GRMZM2G084397,GRMZM2G380319,AC209257.4_FG008,GRMZM2G132251,AC220927.3_FG007,GRMZM2G006505,GRMZM2G364208,GRMZM2G036286,GRMZM2G371176,GRMZM2G476477,GRMZM2G426213</t>
-  </si>
-  <si>
     <t>GRMZM2G132251</t>
   </si>
   <si>
@@ -120,90 +87,33 @@
     <t>GRMZM2G158429</t>
   </si>
   <si>
-    <t>GRMZM2G081406,GRMZM2G070468,GRMZM2G084397,GRMZM2G058470,GRMZM2G030762</t>
-  </si>
-  <si>
-    <t>GRMZM2G339943,GRMZM2G339736,GRMZM2G070468</t>
-  </si>
-  <si>
-    <t>GRMZM2G169558,GRMZM5G828487</t>
-  </si>
-  <si>
     <t>Average internode length (above ear)</t>
   </si>
   <si>
-    <t>GRMZM2G061515,GRMZM2G139160,GRMZM2G130454,GRMZM2G166524,GRMZM2G070468,GRMZM2G081214,GRMZM2G018462,GRMZM2G006721,GRMZM2G027825,GRMZM2G157927,GRMZM2G425965,GRMZM2G063533,AC220927.3_FG007,GRMZM2G078174,GRMZM2G438202,GRMZM2G304712,GRMZM2G036286,GRMZM2G094543,GRMZM2G171248,GRMZM2G426213</t>
-  </si>
-  <si>
-    <t>GRMZM2G360519,GRMZM2G102802,GRMZM2G171248,GRMZM2G006721</t>
-  </si>
-  <si>
-    <t>GRMZM2G034471,GRMZM2G126646</t>
-  </si>
-  <si>
     <t>K39</t>
   </si>
   <si>
-    <t>GRMZM2G339435,GRMZM2G116658,GRMZM2G345582</t>
-  </si>
-  <si>
     <t>GRMZM2G078174</t>
   </si>
   <si>
-    <t>GRMZM2G464680,GRMZM2G029314,GRMZM2G070468,GRMZM2G040890</t>
-  </si>
-  <si>
-    <t>GRMZM2G102802,GRMZM2G070468</t>
-  </si>
-  <si>
-    <t>GRMZM2G169558,GRMZM2G465165,GRMZM2G416105</t>
-  </si>
-  <si>
     <t>Average internode length (below ear)</t>
   </si>
   <si>
-    <t>GRMZM2G166719,GRMZM2G019413,GRMZM2G132273,GRMZM5G822449,GRMZM2G426242,GRMZM2G111679,GRMZM2G111146,GRMZM2G004768,GRMZM2G066860,GRMZM2G050741,GRMZM5G881965,GRMZM2G024551,GRMZM2G044104,GRMZM2G336337,GRMZM2G006721,GRMZM2G166297,GRMZM2G348238,GRMZM2G083195,GRMZM2G132251,GRMZM2G135362,GRMZM2G006505,GRMZM2G056804,GRMZM2G158194,GRMZM5G800598,AC207755.3_FG005,GRMZM2G138771,GRMZM2G380319,GRMZM2G119490,AC213050.3_FG002,GRMZM2G083574,GRMZM2G176347</t>
-  </si>
-  <si>
     <t>GRMZM2G102802,GRMZM2G006721,GRMZM2G360519,GRMZM2G132251,GRMZM2G040673</t>
   </si>
   <si>
     <t>GRMZM5G847982,GRMZM2G311665</t>
   </si>
   <si>
-    <t>GRMZM2G125308,GRMZM2G176270,GRMZM2G339435</t>
-  </si>
-  <si>
-    <t>GRMZM2G384255,GRMZM2G105682,GRMZM2G170044,GRMZM2G161097,GRMZM2G170253,GRMZM2G120652,GRMZM2G304442</t>
-  </si>
-  <si>
     <t>AC207755.3_FG005</t>
   </si>
   <si>
-    <t>GRMZM2G092669,GRMZM5G851485,GRMZM2G158429</t>
-  </si>
-  <si>
-    <t>GRMZM2G361659,GRMZM2G126774</t>
-  </si>
-  <si>
-    <t>GRMZM2G006363,GRMZM2G024551,GRMZM2G164965,GRMZM5G842019,GRMZM2G054032,AC233853.1_FG003,GRMZM2G063756,GRMZM2G118433,GRMZM2G085054,GRMZM2G024799,GRMZM2G172491,GRMZM2G458082,GRMZM2G134731,GRMZM2G144730</t>
-  </si>
-  <si>
-    <t>GRMZM2G339736,GRMZM2G102802,GRMZM2G310431,GRMZM2G031323,GRMZM2G067830,GRMZM2G071907,GRMZM2G092432,GRMZM2G067943,GRMZM2G050741,GRMZM2G176270,GRMZM2G375116,GRMZM2G067865,GRMZM2G305146</t>
-  </si>
-  <si>
     <t>GRMZM2G018721,GRMZM2G066860,GRMZM2G169558,GRMZM2G078324,GRMZM2G458082,AC233979.1_FG008</t>
   </si>
   <si>
     <t>Average internode length (whole plant)</t>
   </si>
   <si>
-    <t>GRMZM2G018462,GRMZM2G426242,GRMZM2G435589,GRMZM2G085550,GRMZM2G070468,GRMZM5G862956,GRMZM2G063533,GRMZM2G365770,GRMZM5G881965,GRMZM2G024551,GRMZM2G044104,GRMZM2G336337,GRMZM2G425965,GRMZM2G006721,GRMZM2G091331,GRMZM5G859526,GRMZM2G455809,AC234161.1_FG010,GRMZM2G056804,AC207755.3_FG005,GRMZM2G103662,GRMZM2G125775,AC213050.3_FG002,GRMZM2G438202,GRMZM2G068963</t>
-  </si>
-  <si>
-    <t>GRMZM2G360519,GRMZM2G102802,GRMZM2G006721</t>
-  </si>
-  <si>
     <t>GRMZM2G034471</t>
   </si>
   <si>
@@ -216,42 +126,18 @@
     <t>GRMZM2G151223</t>
   </si>
   <si>
-    <t>GRMZM2G024551,GRMZM2G070468,GRMZM2G091331,GRMZM2G054032,AC233853.1_FG003,GRMZM2G427451,GRMZM2G386209,GRMZM2G085550,GRMZM2G033489</t>
-  </si>
-  <si>
-    <t>GRMZM2G339736,GRMZM2G102802,GRMZM2G070468,GRMZM2G093632,GRMZM2G435589,GRMZM2G103662,GRMZM2G346466,GRMZM5G848822,GRMZM2G093603,GRMZM2G305146</t>
-  </si>
-  <si>
     <t>GRMZM2G018721,GRMZM2G169558,GRMZM2G416105,GRMZM2G465165,GRMZM2G327059</t>
   </si>
   <si>
     <t>Boxcox-transformed leaf angle</t>
   </si>
   <si>
-    <t>GRMZM2G102802,GRMZM2G009406</t>
-  </si>
-  <si>
-    <t>GRMZM2G092474</t>
-  </si>
-  <si>
-    <t>GRMZM2G322001</t>
-  </si>
-  <si>
-    <t>GRMZM2G168665,GRMZM2G331638</t>
-  </si>
-  <si>
     <t>Ni60</t>
   </si>
   <si>
     <t>GRMZM2G519210</t>
   </si>
   <si>
-    <t>GRMZM2G053939,GRMZM2G086949,GRMZM2G068398,GRMZM2G054032,GRMZM2G029314</t>
-  </si>
-  <si>
-    <t>GRMZM2G396527,GRMZM2G339736,GRMZM2G102802,GRMZM2G310431,GRMZM2G161728,GRMZM2G045981,GRMZM2G481194,GRMZM2G417125</t>
-  </si>
-  <si>
     <t>GRMZM2G388823</t>
   </si>
   <si>
@@ -261,15 +147,6 @@
     <t>GRMZM2G339435</t>
   </si>
   <si>
-    <t>GRMZM2G106276,GRMZM2G170044</t>
-  </si>
-  <si>
-    <t>GRMZM2G106276,GRMZM2G427451</t>
-  </si>
-  <si>
-    <t>GRMZM2G388823,GRMZM2G172930</t>
-  </si>
-  <si>
     <t>Chlorophyll B</t>
   </si>
   <si>
@@ -282,78 +159,24 @@
     <t>GRMZM2G327059</t>
   </si>
   <si>
-    <t>Cob diameter</t>
-  </si>
-  <si>
-    <t>AC208110.2_FG006,GRMZM2G040121,GRMZM2G091331</t>
-  </si>
-  <si>
-    <t>GRMZM2G067830</t>
-  </si>
-  <si>
-    <t>GRMZM2G066860</t>
-  </si>
-  <si>
-    <t>Days to anthesis</t>
-  </si>
-  <si>
-    <t>GRMZM2G024799,GRMZM2G086949,AC203571.3_FG001,GRMZM2G030762</t>
-  </si>
-  <si>
-    <t>GRMZM2G051689</t>
-  </si>
-  <si>
-    <t>GRMZM2G117164,GRMZM5G828487</t>
-  </si>
-  <si>
     <t>Days to silk</t>
   </si>
   <si>
     <t>GRMZM5G827365</t>
   </si>
   <si>
-    <t>GRMZM2G086949,GRMZM2G058470,GRMZM2G030762</t>
-  </si>
-  <si>
-    <t>GRMZM2G409128,GRMZM2G081053</t>
-  </si>
-  <si>
     <t>Ear height</t>
   </si>
   <si>
-    <t>GRMZM2G086949,GRMZM2G040890,GRMZM2G426415</t>
-  </si>
-  <si>
-    <t>GRMZM2G066860,GRMZM2G172930</t>
-  </si>
-  <si>
-    <t>Ear row number</t>
-  </si>
-  <si>
-    <t>GRMZM2G091331</t>
-  </si>
-  <si>
     <t>Glucose</t>
   </si>
   <si>
-    <t>GRMZM2G388823,GRMZM2G107711</t>
-  </si>
-  <si>
-    <t>Num Wallace Genes</t>
-  </si>
-  <si>
     <t>Num Ionome HPO Genes</t>
   </si>
   <si>
-    <t>Num Common</t>
-  </si>
-  <si>
     <t>Hypergeometric p-value</t>
   </si>
   <si>
-    <t>Bonferoni significant</t>
-  </si>
-  <si>
     <t>Common Genes</t>
   </si>
   <si>
@@ -361,6 +184,108 @@
   </si>
   <si>
     <t>Ionome GWAS Trait</t>
+  </si>
+  <si>
+    <t>GRMZM2G348238</t>
+  </si>
+  <si>
+    <t>GRMZM5G829396</t>
+  </si>
+  <si>
+    <t>GRMZM5G893392,GRMZM2G045596,GRMZM2G070468,GRMZM2G157927,GRMZM2G348238,GRMZM2G046459,GRMZM5G870342,GRMZM2G084046,GRMZM2G364643,GRMZM2G041328,GRMZM5G852801,GRMZM2G142179</t>
+  </si>
+  <si>
+    <t>GRMZM2G104639,GRMZM2G009406,GRMZM2G045596</t>
+  </si>
+  <si>
+    <t>GRMZM2G070468,GRMZM5G842019,GRMZM2G589470,GRMZM2G149446,GRMZM2G140032</t>
+  </si>
+  <si>
+    <t>GRMZM2G166524,GRMZM2G081214,GRMZM2G132251,AC220927.3_FG007,GRMZM2G006505,GRMZM2G364208,GRMZM2G371176</t>
+  </si>
+  <si>
+    <t>GRMZM2G030762,GRMZM2G081406</t>
+  </si>
+  <si>
+    <t>GRMZM2G339943</t>
+  </si>
+  <si>
+    <t>GRMZM5G828487</t>
+  </si>
+  <si>
+    <t>GRMZM2G061515,GRMZM2G166524,GRMZM2G018462,GRMZM2G157927,GRMZM2G078174,GRMZM2G438202,GRMZM2G171248,GRMZM2G426213</t>
+  </si>
+  <si>
+    <t>GRMZM2G171248</t>
+  </si>
+  <si>
+    <t>GRMZM2G040890</t>
+  </si>
+  <si>
+    <t>GRMZM2G169558</t>
+  </si>
+  <si>
+    <t>GRMZM2G166719,GRMZM2G019413,GRMZM2G132273,GRMZM5G822449,GRMZM2G426242,GRMZM2G111679,GRMZM2G111146,GRMZM2G004768,GRMZM2G066860,GRMZM2G050741,GRMZM2G024551,GRMZM2G044104,GRMZM2G006721,GRMZM2G166297,GRMZM2G348238,GRMZM2G083195,GRMZM2G132251,GRMZM2G135362,GRMZM2G006505,GRMZM2G056804,GRMZM2G158194,GRMZM5G800598,AC207755.3_FG005,GRMZM2G138771,GRMZM2G380319,GRMZM2G119490,GRMZM2G083574,GRMZM2G176347</t>
+  </si>
+  <si>
+    <t>GRMZM2G339435,GRMZM2G176270</t>
+  </si>
+  <si>
+    <t>GRMZM2G384255,GRMZM2G105682,GRMZM2G170044,GRMZM2G161097,GRMZM2G170253,GRMZM2G120652</t>
+  </si>
+  <si>
+    <t>GRMZM2G361659</t>
+  </si>
+  <si>
+    <t>GRMZM2G024551,GRMZM5G842019,GRMZM2G054032,AC233853.1_FG003,GRMZM2G118433,GRMZM2G085054,GRMZM2G024799,GRMZM2G458082,GRMZM2G134731,GRMZM2G144730</t>
+  </si>
+  <si>
+    <t>GRMZM2G339736,GRMZM2G102802,GRMZM2G067830,GRMZM2G071907,GRMZM2G092432,GRMZM2G050741,GRMZM2G176270,GRMZM2G375116,GRMZM2G305146</t>
+  </si>
+  <si>
+    <t>GRMZM2G024551,GRMZM2G044104,GRMZM2G070468,GRMZM2G091331,GRMZM2G425965,GRMZM2G018462,GRMZM2G426242,GRMZM5G859526,GRMZM5G862956,AC234161.1_FG010,GRMZM2G455809,AC207755.3_FG005,GRMZM2G435589,GRMZM2G365770,GRMZM2G125775,GRMZM2G056804,GRMZM2G438202,GRMZM2G068963</t>
+  </si>
+  <si>
+    <t>GRMZM2G102802</t>
+  </si>
+  <si>
+    <t>GRMZM2G024551,GRMZM2G070468,GRMZM2G091331,GRMZM2G054032,AC233853.1_FG003,GRMZM2G427451,GRMZM2G033489</t>
+  </si>
+  <si>
+    <t>GRMZM2G339736,GRMZM2G102802,GRMZM2G070468,GRMZM2G093632,GRMZM2G435589,GRMZM2G346466</t>
+  </si>
+  <si>
+    <t>GRMZM2G009406</t>
+  </si>
+  <si>
+    <t>GRMZM2G331638</t>
+  </si>
+  <si>
+    <t>GRMZM2G086949,GRMZM2G029314</t>
+  </si>
+  <si>
+    <t>GRMZM2G481194,GRMZM2G045981</t>
+  </si>
+  <si>
+    <t>GRMZM2G040890,GRMZM2G426415</t>
+  </si>
+  <si>
+    <t>GRMZM2G172930</t>
+  </si>
+  <si>
+    <t>GRMZM2G107711</t>
+  </si>
+  <si>
+    <t>Glutamate</t>
+  </si>
+  <si>
+    <t>GRMZM2G419267</t>
+  </si>
+  <si>
+    <t>Num Wallace HPO Genes</t>
+  </si>
+  <si>
+    <t>Num HPO Common</t>
   </si>
   <si>
     <r>
@@ -383,8 +308,11 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+Wallace and the Ionome were compared for overlap between HPO using the hypergeometric distribution. P-values and accompanying Bonferonni indicate if the genes common between the GWAS traits are statisitcally significant.</t>
     </r>
+  </si>
+  <si>
+    <t>Bonferroni significant</t>
   </si>
 </sst>
 </file>
@@ -457,22 +385,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,27 +701,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>113</v>
+      <c r="A1" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -807,28 +732,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -839,23 +764,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>69</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>3.2028575808497869E-2</v>
+        <v>0.23791541729515911</v>
       </c>
       <c r="G3" t="b">
-        <f>F3&lt;0.0000717</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -863,26 +787,25 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>28</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>3.1807139350915142E-2</v>
+        <v>0.10431218814847081</v>
       </c>
       <c r="G4" t="b">
-        <f t="shared" ref="G4:G67" si="0">F4&lt;0.0000717</f>
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -890,26 +813,25 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>2.9736325592557789E-2</v>
+        <v>3.7208767822484423E-11</v>
       </c>
       <c r="G5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -917,26 +839,25 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>3.6186196182901129E-14</v>
+        <v>1.4272228273972261E-4</v>
       </c>
       <c r="G6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -944,26 +865,25 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.2328769809348431E-4</v>
+        <v>4.6101208625879478E-2</v>
       </c>
       <c r="G7" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -971,26 +891,25 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.1137635918620172</v>
+        <v>4.6597904675967109E-3</v>
       </c>
       <c r="G8" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -998,26 +917,25 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2.7705804409360039E-2</v>
+        <v>3.097281112602094E-2</v>
       </c>
       <c r="G9" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1025,26 +943,25 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>7.7352362714008388E-2</v>
+        <v>5.9466424570200262E-5</v>
       </c>
       <c r="G10" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1052,982 +969,946 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.40771374417547418</v>
+        <v>1.705576828892767E-3</v>
       </c>
       <c r="G11" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="E12">
         <v>7</v>
       </c>
       <c r="F12">
-        <v>9.1652416623014051E-5</v>
+        <v>1.434140088788878E-8</v>
       </c>
       <c r="G12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>2.2323628221134421E-2</v>
+        <v>3.5828520120735549E-2</v>
       </c>
       <c r="G13" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.38952513074663347</v>
+        <v>1.2485604696639899E-4</v>
       </c>
       <c r="G14" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.1553169895909145</v>
+        <v>9.5195858966677319E-3</v>
       </c>
       <c r="G15" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>2.5151347531052929E-12</v>
+        <v>8.0804265757810148E-2</v>
       </c>
       <c r="G16" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.14506586862250731</v>
+        <v>6.6481065180580418E-2</v>
       </c>
       <c r="G17" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>2.2740906521028881E-3</v>
+        <v>2.3746037171642231E-9</v>
       </c>
       <c r="G18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.10281081449844</v>
+        <v>4.3842847777686378E-2</v>
       </c>
       <c r="G19" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="D20">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>4.3596138268040219E-4</v>
+        <v>2.0473848291890209E-2</v>
       </c>
       <c r="G20" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>5.6603421264286042E-3</v>
+        <v>3.8750057803947071E-4</v>
       </c>
       <c r="G21" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1.3695145859633211E-2</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>23</v>
-      </c>
-      <c r="C22">
-        <v>150</v>
-      </c>
-      <c r="D22">
-        <v>49</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>3.5066492229517833E-2</v>
-      </c>
-      <c r="G22" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>5.5112640006439542E-17</v>
+        <v>0.1658514894023522</v>
       </c>
       <c r="G23" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>3.374034232865899E-5</v>
+        <v>8.105770829382121E-2</v>
       </c>
       <c r="G24" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>3.216933980510886E-3</v>
+        <v>3.7596240248859681E-21</v>
       </c>
       <c r="G25" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>2.2873795083268631E-4</v>
+        <v>1.336718373033343E-5</v>
       </c>
       <c r="G26" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>5.5935837123423232E-2</v>
+        <v>8.8816043349260777E-3</v>
       </c>
       <c r="G27" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C28">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="D28">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>6.9589249563139517E-3</v>
+        <v>1.7588593895775179E-2</v>
       </c>
       <c r="G28" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>6.9028855582790996E-2</v>
+        <v>5.5921018986503545E-7</v>
       </c>
       <c r="G29" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="D30">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>5.2391934169846192E-3</v>
+        <v>9.2766831204946054E-2</v>
       </c>
       <c r="G30" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C31">
-        <v>624</v>
+        <v>302</v>
       </c>
       <c r="D31">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="E31">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.5779494537086231E-15</v>
+        <v>0.19675432700835829</v>
       </c>
       <c r="G31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>624</v>
+        <v>302</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>4.0808538023310621E-4</v>
+        <v>0.46920231254871358</v>
       </c>
       <c r="G32" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>624</v>
+        <v>302</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>3.4859825375481601E-2</v>
+        <v>6.043622881141219E-7</v>
       </c>
       <c r="G33" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>624</v>
+        <v>302</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>8.1315203262361472E-3</v>
+        <v>4.2313823695377737E-8</v>
       </c>
       <c r="G34" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>624</v>
+        <v>302</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>2.5595038841603551E-6</v>
+        <v>2.689038457337615E-5</v>
       </c>
       <c r="G35" t="b">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>624</v>
+        <v>175</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F36">
-        <v>0.18329787550386159</v>
+        <v>9.1763824751886724E-15</v>
       </c>
       <c r="G36" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>624</v>
+        <v>175</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>9.5790424236926169E-3</v>
+        <v>0.16718584289486879</v>
       </c>
       <c r="G37" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>624</v>
+        <v>175</v>
       </c>
       <c r="D38">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0.37441204082517437</v>
+        <v>8.0947728824785306E-2</v>
       </c>
       <c r="G38" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C39">
-        <v>624</v>
+        <v>175</v>
       </c>
       <c r="D39">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E39">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>3.6308029433949779E-7</v>
+        <v>6.1976706838746589E-3</v>
       </c>
       <c r="G39" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>624</v>
+        <v>175</v>
       </c>
       <c r="D40">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E40">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>2.302764762158018E-9</v>
+        <v>7.8125055332902771E-4</v>
       </c>
       <c r="G40" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>624</v>
+        <v>175</v>
       </c>
       <c r="D41">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.334043092239279E-3</v>
+        <v>5.4716436152072043E-2</v>
       </c>
       <c r="G41" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C42">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="D42">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.88138328260793E-15</v>
+        <v>0.1189436499644828</v>
       </c>
       <c r="G42" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F43">
-        <v>7.0114534084741859E-3</v>
+        <v>9.4057437311024172E-6</v>
       </c>
       <c r="G43" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C44">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F44">
-        <v>0.16811112097090999</v>
+        <v>3.9776478557537622E-6</v>
       </c>
       <c r="G44" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F45">
-        <v>2.7015338441367279E-2</v>
+        <v>2.3716197920755792E-5</v>
       </c>
       <c r="G45" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="D46">
         <v>26</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>7.0114534084741859E-3</v>
+        <v>7.9121469556593549E-2</v>
       </c>
       <c r="G46" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="D47">
         <v>8</v>
@@ -2036,905 +1917,351 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0.1154660336904673</v>
+        <v>2.5034348779649739E-2</v>
       </c>
       <c r="G47" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C48">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="D48">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>0.24127664286512401</v>
+        <v>6.3174572055113443E-3</v>
       </c>
       <c r="G48" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <v>105</v>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>3.3087739298013348E-5</v>
+        <v>4.3761487155436873E-2</v>
       </c>
       <c r="G49" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="D50">
         <v>60</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F50">
-        <v>2.2683697287235089E-8</v>
+        <v>1.553608978111507E-2</v>
       </c>
       <c r="G50" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51">
-        <v>380</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>8.7467370571234822E-4</v>
+        <v>2.7205425389877692E-3</v>
       </c>
       <c r="G51" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C52">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>2.750155195654579E-2</v>
+        <v>7.8265007690337691E-3</v>
       </c>
       <c r="G52" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>0.1566914325429633</v>
+        <v>5.7397012716854249E-3</v>
       </c>
       <c r="G53" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="C54">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0.22948271883238261</v>
+        <v>6.292054278361249E-2</v>
       </c>
       <c r="G54" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>2.6653098363360211E-3</v>
+        <v>5.1677993310072522E-2</v>
       </c>
       <c r="G55" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>1.9844097247511881E-2</v>
+        <v>1.401167501628982E-2</v>
       </c>
       <c r="G56" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C57">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>0.16510626917402499</v>
+        <v>1.811240130497694E-2</v>
       </c>
       <c r="G57" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="D58">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>4.072659932954574E-3</v>
+        <v>9.1843639377921574E-2</v>
       </c>
       <c r="G58" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>249</v>
+        <v>8</v>
       </c>
       <c r="D59">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.4289040507464191E-7</v>
+        <v>1.55929879160652E-2</v>
       </c>
       <c r="G59" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C60">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="D60">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>0.38831274196932392</v>
+        <v>7.4137548457208102E-2</v>
       </c>
       <c r="G60" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61">
-        <v>19</v>
-      </c>
-      <c r="D61">
-        <v>17</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1.2860662834377701E-2</v>
-      </c>
-      <c r="G61" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62">
-        <v>19</v>
-      </c>
-      <c r="D62">
-        <v>26</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-      <c r="F62">
-        <v>1.763292601081835E-4</v>
-      </c>
-      <c r="G62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63">
-        <v>19</v>
-      </c>
-      <c r="D63">
-        <v>105</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63">
-        <v>2.8581427794127819E-3</v>
-      </c>
-      <c r="G63" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64">
-        <v>19</v>
-      </c>
-      <c r="D64">
-        <v>49</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64">
-        <v>6.3141911713467591E-4</v>
-      </c>
-      <c r="G64" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65">
-        <v>54</v>
-      </c>
-      <c r="D65">
-        <v>105</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65">
-        <v>2.17431467174658E-2</v>
-      </c>
-      <c r="G65" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66">
-        <v>54</v>
-      </c>
-      <c r="D66">
-        <v>60</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>0.1219439655258294</v>
-      </c>
-      <c r="G66" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67">
-        <v>54</v>
-      </c>
-      <c r="D67">
-        <v>49</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>0.100737099829104</v>
-      </c>
-      <c r="G67" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68">
-        <v>51</v>
-      </c>
-      <c r="D68">
-        <v>105</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-      <c r="F68">
-        <v>1.2992253902725721E-3</v>
-      </c>
-      <c r="G68" t="b">
-        <f t="shared" ref="G68:G79" si="1">F68&lt;0.0000717</f>
-        <v>0</v>
-      </c>
-      <c r="H68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69">
-        <v>51</v>
-      </c>
-      <c r="D69">
-        <v>60</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>0.11557074597451671</v>
-      </c>
-      <c r="G69" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70">
-        <v>51</v>
-      </c>
-      <c r="D70">
-        <v>49</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>9.5411315050166506E-2</v>
-      </c>
-      <c r="G70" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71">
-        <v>60</v>
-      </c>
-      <c r="D71">
-        <v>105</v>
-      </c>
-      <c r="E71">
-        <v>4</v>
-      </c>
-      <c r="F71">
-        <v>1.200897767309391E-4</v>
-      </c>
-      <c r="G71" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H71" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>90</v>
-      </c>
-      <c r="B72" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72">
-        <v>60</v>
-      </c>
-      <c r="D72">
-        <v>60</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>0.13455522259060179</v>
-      </c>
-      <c r="G72" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73">
-        <v>60</v>
-      </c>
-      <c r="D73">
-        <v>49</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
-      <c r="F73">
-        <v>6.2092957676745612E-3</v>
-      </c>
-      <c r="G73" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74">
-        <v>135</v>
-      </c>
-      <c r="D74">
-        <v>8</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>4.2446419350193818E-2</v>
-      </c>
-      <c r="G74" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75">
-        <v>135</v>
-      </c>
-      <c r="D75">
-        <v>105</v>
-      </c>
-      <c r="E75">
-        <v>3</v>
-      </c>
-      <c r="F75">
-        <v>1.941375035513479E-2</v>
-      </c>
-      <c r="G75" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76">
-        <v>135</v>
-      </c>
-      <c r="D76">
-        <v>49</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76">
-        <v>2.8912326397706009E-2</v>
-      </c>
-      <c r="G76" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77">
-        <v>124</v>
-      </c>
-      <c r="D77">
-        <v>105</v>
-      </c>
-      <c r="E77">
-        <v>3</v>
-      </c>
-      <c r="F77">
-        <v>1.5517640697197721E-2</v>
-      </c>
-      <c r="G77" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78">
-        <v>124</v>
-      </c>
-      <c r="D78">
-        <v>49</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-      <c r="F78">
-        <v>2.4709856703614929E-2</v>
-      </c>
-      <c r="G78" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>101</v>
-      </c>
-      <c r="B79" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79">
-        <v>6</v>
-      </c>
-      <c r="D79">
-        <v>105</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>2.4968006811415411E-2</v>
-      </c>
-      <c r="G79" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>103</v>
-      </c>
-      <c r="B80" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80">
-        <v>51</v>
-      </c>
-      <c r="D80">
-        <v>49</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80">
-        <v>4.5232833730880356E-3</v>
-      </c>
-      <c r="G80" t="b">
-        <f>F80&lt;0.0000717</f>
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Supp Table 13 - Wallace Ionome HPO Overlap.xlsx
+++ b/Tables/Supp Table 13 - Wallace Ionome HPO Overlap.xlsx
@@ -704,7 +704,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.23791541729515911</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.10431218814847081</v>
+        <v>0.104</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>3.7208767822484423E-11</v>
+        <v>3.7199999999999998E-11</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>1.4272228273972261E-4</v>
+        <v>1.4300000000000001E-4</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>4.6101208625879478E-2</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>4.6597904675967109E-3</v>
+        <v>4.6600000000000001E-3</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>3.097281112602094E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>5.9466424570200262E-5</v>
+        <v>5.9500000000000003E-5</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>1.705576828892767E-3</v>
+        <v>1.7099999999999999E-3</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="F12">
-        <v>1.434140088788878E-8</v>
+        <v>1.4300000000000001E-8</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>3.5828520120735549E-2</v>
+        <v>3.5799999999999998E-2</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1.2485604696639899E-4</v>
+        <v>1.25E-4</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>9.5195858966677319E-3</v>
+        <v>9.5200000000000007E-3</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>8.0804265757810148E-2</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>6.6481065180580418E-2</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1163,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <v>2.3746037171642231E-9</v>
+        <v>2.3699999999999999E-9</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>4.3842847777686378E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>2.0473848291890209E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>3.8750057803947071E-4</v>
+        <v>3.88E-4</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1.3695145859633211E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0.1658514894023522</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>8.105770829382121E-2</v>
+        <v>8.1100000000000005E-2</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>28</v>
       </c>
       <c r="F25">
-        <v>3.7596240248859681E-21</v>
+        <v>3.7600000000000002E-21</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="F26">
-        <v>1.336718373033343E-5</v>
+        <v>1.34E-5</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>8.8816043349260777E-3</v>
+        <v>8.8800000000000007E-3</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>1.7588593895775179E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>5.5921018986503545E-7</v>
+        <v>5.5899999999999996E-7</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>9.2766831204946054E-2</v>
+        <v>9.2799999999999994E-2</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.19675432700835829</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0.46920231254871358</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <v>6.043622881141219E-7</v>
+        <v>6.0399999999999996E-7</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -1579,7 +1579,7 @@
         <v>9</v>
       </c>
       <c r="F34">
-        <v>4.2313823695377737E-8</v>
+        <v>4.2300000000000002E-8</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -1605,7 +1605,7 @@
         <v>6</v>
       </c>
       <c r="F35">
-        <v>2.689038457337615E-5</v>
+        <v>2.69E-5</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -1631,7 +1631,7 @@
         <v>18</v>
       </c>
       <c r="F36">
-        <v>9.1763824751886724E-15</v>
+        <v>9.1800000000000001E-15</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0.16718584289486879</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>8.0947728824785306E-2</v>
+        <v>8.09E-2</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>6.1976706838746589E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="F40">
-        <v>7.8125055332902771E-4</v>
+        <v>7.8100000000000001E-4</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>5.4716436152072043E-2</v>
+        <v>5.4699999999999999E-2</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0.1189436499644828</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>7</v>
       </c>
       <c r="F43">
-        <v>9.4057437311024172E-6</v>
+        <v>9.4099999999999997E-6</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -1839,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="F44">
-        <v>3.9776478557537622E-6</v>
+        <v>3.98E-6</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="F45">
-        <v>2.3716197920755792E-5</v>
+        <v>2.37E-5</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>7.9121469556593549E-2</v>
+        <v>7.9100000000000004E-2</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>2.5034348779649739E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>6.3174572055113443E-3</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>4.3761487155436873E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>1.553608978111507E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>2.7205425389877692E-3</v>
+        <v>2.7200000000000002E-3</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>7.8265007690337691E-3</v>
+        <v>7.8300000000000002E-3</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="F53">
-        <v>5.7397012716854249E-3</v>
+        <v>5.7400000000000003E-3</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>6.292054278361249E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>5.1677993310072522E-2</v>
+        <v>5.1700000000000003E-2</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>1.401167501628982E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="F57">
-        <v>1.811240130497694E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>9.1843639377921574E-2</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1.55929879160652E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>7.4137548457208102E-2</v>
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -2265,7 +2265,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H80"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>

--- a/Tables/Supp Table 13 - Wallace Ionome HPO Overlap.xlsx
+++ b/Tables/Supp Table 13 - Wallace Ionome HPO Overlap.xlsx
@@ -288,6 +288,9 @@
     <t>Num HPO Common</t>
   </si>
   <si>
+    <t>Bonferroni significant</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -297,7 +300,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Overlap between Wallace et al and ionome HPO genes</t>
+      <t xml:space="preserve">Overlap between Wallace et al and ionome HPO genes. </t>
     </r>
     <r>
       <rPr>
@@ -307,12 +310,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Wallace and the Ionome were compared for overlap between HPO using the hypergeometric distribution. P-values and accompanying Bonferonni indicate if the genes common between the GWAS traits are statisitcally significant.</t>
+      <t>Wallace and the ionome were compared for overlap between HPO using the hypergeometric distribution. P-values and accompanying Bonferroni indicate if the genes common between the GWAS traits are statistically significant. Supports Supp. Table 12.</t>
     </r>
-  </si>
-  <si>
-    <t>Bonferroni significant</t>
   </si>
 </sst>
 </file>
@@ -704,7 +703,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +720,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -750,7 +749,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>51</v>
